--- a/input/PL/reg_leaveParentalHome.xlsx
+++ b/input/PL/reg_leaveParentalHome.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU_JAN/input/PL/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB59DC79-69FC-1243-97CE-D98054E3EAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="1" r:id="rId2"/>
-    <sheet name="Gof" sheetId="2" r:id="rId4"/>
-    <sheet name="P1a" sheetId="3" r:id="rId5"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Gof" sheetId="2" r:id="rId2"/>
+    <sheet name="P1a_old" sheetId="3" r:id="rId3"/>
+    <sheet name="P1a" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
   <si>
     <t>Description:</t>
   </si>
@@ -128,56 +136,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <b/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <b/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,39 +190,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -237,42 +230,352 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -280,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -288,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -296,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -304,34 +607,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -345,7 +649,7 @@
         <v>666.62064321586877</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -360,18 +664,21 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U20" sqref="A1:U20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -439,7 +746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -447,324 +754,324 @@
         <v>-0.14138840339847664</v>
       </c>
       <c r="C2">
-        <v>0.0012949909739937949</v>
+        <v>1.2949909739937949E-3</v>
       </c>
       <c r="D2">
-        <v>-7.0707827190605508e-05</v>
+        <v>-7.0707827190605508E-5</v>
       </c>
       <c r="E2">
-        <v>1.0355188711930363e-06</v>
+        <v>1.0355188711930363E-6</v>
       </c>
       <c r="F2">
-        <v>-0.00026624516257814731</v>
+        <v>-2.6624516257814731E-4</v>
       </c>
       <c r="G2">
-        <v>-0.00040060894380091768</v>
+        <v>-4.0060894380091768E-4</v>
       </c>
       <c r="H2">
-        <v>0.0002149649412465649</v>
+        <v>2.149649412465649E-4</v>
       </c>
       <c r="I2">
-        <v>-5.2437605660415442e-05</v>
+        <v>-5.2437605660415442E-5</v>
       </c>
       <c r="J2">
-        <v>0.0001721836776311771</v>
+        <v>1.721836776311771E-4</v>
       </c>
       <c r="K2">
-        <v>0.00013799019905741077</v>
+        <v>1.3799019905741077E-4</v>
       </c>
       <c r="L2">
-        <v>5.0465514385089379e-05</v>
+        <v>5.0465514385089379E-5</v>
       </c>
       <c r="M2">
-        <v>-0.00011503667230241461</v>
+        <v>-1.1503667230241461E-4</v>
       </c>
       <c r="N2">
-        <v>-0.00014458703327079053</v>
+        <v>-1.4458703327079053E-4</v>
       </c>
       <c r="O2">
-        <v>-5.1867126288749474e-05</v>
+        <v>-5.1867126288749474E-5</v>
       </c>
       <c r="P2">
-        <v>-8.0001856939382148e-05</v>
+        <v>-8.0001856939382148E-5</v>
       </c>
       <c r="Q2">
-        <v>-0.00012947880316783935</v>
+        <v>-1.2947880316783935E-4</v>
       </c>
       <c r="R2">
-        <v>1.0165724432990153e-05</v>
+        <v>1.0165724432990153E-5</v>
       </c>
       <c r="S2">
-        <v>-0.00012896466474044275</v>
+        <v>-1.2896466474044275E-4</v>
       </c>
       <c r="T2">
-        <v>-4.2692255085263314e-06</v>
+        <v>-4.2692255085263314E-6</v>
       </c>
       <c r="U2">
-        <v>0.00046697036394668262</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>4.6697036394668262E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>-0.033214708718791619</v>
+        <v>-3.3214708718791619E-2</v>
       </c>
       <c r="C3">
-        <v>-7.0707827190605508e-05</v>
+        <v>-7.0707827190605508E-5</v>
       </c>
       <c r="D3">
-        <v>0.00099127823783277469</v>
+        <v>9.9127823783277469E-4</v>
       </c>
       <c r="E3">
-        <v>-1.6680636489329086e-05</v>
+        <v>-1.6680636489329086E-5</v>
       </c>
       <c r="F3">
-        <v>0.00021198714305433646</v>
+        <v>2.1198714305433646E-4</v>
       </c>
       <c r="G3">
-        <v>0.0004732660896220399</v>
+        <v>4.732660896220399E-4</v>
       </c>
       <c r="H3">
-        <v>0.00050213167029426677</v>
+        <v>5.0213167029426677E-4</v>
       </c>
       <c r="I3">
-        <v>0.00019411985163656615</v>
+        <v>1.9411985163656615E-4</v>
       </c>
       <c r="J3">
-        <v>1.027784086652132e-05</v>
+        <v>1.027784086652132E-5</v>
       </c>
       <c r="K3">
-        <v>-0.00013914404090936586</v>
+        <v>-1.3914404090936586E-4</v>
       </c>
       <c r="L3">
-        <v>-0.00014221730512971494</v>
+        <v>-1.4221730512971494E-4</v>
       </c>
       <c r="M3">
-        <v>-4.9792161380392448e-05</v>
+        <v>-4.9792161380392448E-5</v>
       </c>
       <c r="N3">
-        <v>-0.00010759854636406595</v>
+        <v>-1.0759854636406595E-4</v>
       </c>
       <c r="O3">
-        <v>-8.4849050518204325e-05</v>
+        <v>-8.4849050518204325E-5</v>
       </c>
       <c r="P3">
-        <v>-8.4927254428683249e-05</v>
+        <v>-8.4927254428683249E-5</v>
       </c>
       <c r="Q3">
-        <v>-9.6837043590702128e-05</v>
+        <v>-9.6837043590702128E-5</v>
       </c>
       <c r="R3">
-        <v>3.9585230328766444e-06</v>
+        <v>3.9585230328766444E-6</v>
       </c>
       <c r="S3">
-        <v>0.00012307788391941398</v>
+        <v>1.2307788391941398E-4</v>
       </c>
       <c r="T3">
-        <v>-6.6450718994026658e-07</v>
+        <v>-6.6450718994026658E-7</v>
       </c>
       <c r="U3">
-        <v>-0.014361770494688467</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>-1.4361770494688467E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.0018666188661770936</v>
+        <v>1.8666188661770936E-3</v>
       </c>
       <c r="C4">
-        <v>1.0355188711930363e-06</v>
+        <v>1.0355188711930363E-6</v>
       </c>
       <c r="D4">
-        <v>-1.6680636489329086e-05</v>
+        <v>-1.6680636489329086E-5</v>
       </c>
       <c r="E4">
-        <v>2.84131956996201e-07</v>
+        <v>2.84131956996201E-7</v>
       </c>
       <c r="F4">
-        <v>-3.4785323114892528e-06</v>
+        <v>-3.4785323114892528E-6</v>
       </c>
       <c r="G4">
-        <v>-7.7945898037810748e-06</v>
+        <v>-7.7945898037810748E-6</v>
       </c>
       <c r="H4">
-        <v>-7.3836953688990724e-06</v>
+        <v>-7.3836953688990724E-6</v>
       </c>
       <c r="I4">
-        <v>-3.151320122479334e-06</v>
+        <v>-3.151320122479334E-6</v>
       </c>
       <c r="J4">
-        <v>-2.9061442938470284e-07</v>
+        <v>-2.9061442938470284E-7</v>
       </c>
       <c r="K4">
-        <v>2.2877256176276093e-06</v>
+        <v>2.2877256176276093E-6</v>
       </c>
       <c r="L4">
-        <v>1.977062399601804e-06</v>
+        <v>1.977062399601804E-6</v>
       </c>
       <c r="M4">
-        <v>4.4601625735538839e-07</v>
+        <v>4.4601625735538839E-7</v>
       </c>
       <c r="N4">
-        <v>1.5744898127945065e-06</v>
+        <v>1.5744898127945065E-6</v>
       </c>
       <c r="O4">
-        <v>8.551322654478527e-07</v>
+        <v>8.551322654478527E-7</v>
       </c>
       <c r="P4">
-        <v>1.1261326590273982e-06</v>
+        <v>1.1261326590273982E-6</v>
       </c>
       <c r="Q4">
-        <v>1.368553637551854e-06</v>
+        <v>1.368553637551854E-6</v>
       </c>
       <c r="R4">
-        <v>-1.0751696909061587e-07</v>
+        <v>-1.0751696909061587E-7</v>
       </c>
       <c r="S4">
-        <v>-1.6223388833581656e-06</v>
+        <v>-1.6223388833581656E-6</v>
       </c>
       <c r="T4">
-        <v>-4.0830682533250242e-08</v>
+        <v>-4.0830682533250242E-8</v>
       </c>
       <c r="U4">
-        <v>0.0002398165347949532</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2.398165347949532E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>-0.050199449907309082</v>
+        <v>-5.0199449907309082E-2</v>
       </c>
       <c r="C5">
-        <v>-0.00026624516257814731</v>
+        <v>-2.6624516257814731E-4</v>
       </c>
       <c r="D5">
-        <v>0.00021198714305433646</v>
+        <v>2.1198714305433646E-4</v>
       </c>
       <c r="E5">
-        <v>-3.4785323114892528e-06</v>
+        <v>-3.4785323114892528E-6</v>
       </c>
       <c r="F5">
-        <v>0.0018498826230517016</v>
+        <v>1.8498826230517016E-3</v>
       </c>
       <c r="G5">
-        <v>0.0015066667291554472</v>
+        <v>1.5066667291554472E-3</v>
       </c>
       <c r="H5">
-        <v>-0.00011799027341086188</v>
+        <v>-1.1799027341086188E-4</v>
       </c>
       <c r="I5">
-        <v>-0.00011777421416991597</v>
+        <v>-1.1777421416991597E-4</v>
       </c>
       <c r="J5">
-        <v>-4.4761623489963584e-05</v>
+        <v>-4.4761623489963584E-5</v>
       </c>
       <c r="K5">
-        <v>-0.00018008890678033828</v>
+        <v>-1.8008890678033828E-4</v>
       </c>
       <c r="L5">
-        <v>1.2838484880973848e-05</v>
+        <v>1.2838484880973848E-5</v>
       </c>
       <c r="M5">
-        <v>0.00027584921765370679</v>
+        <v>2.7584921765370679E-4</v>
       </c>
       <c r="N5">
-        <v>-0.00016161980480349164</v>
+        <v>-1.6161980480349164E-4</v>
       </c>
       <c r="O5">
-        <v>0.00017233356922551882</v>
+        <v>1.7233356922551882E-4</v>
       </c>
       <c r="P5">
-        <v>6.6058283828845054e-05</v>
+        <v>6.6058283828845054E-5</v>
       </c>
       <c r="Q5">
-        <v>9.3981603891204302e-05</v>
+        <v>9.3981603891204302E-5</v>
       </c>
       <c r="R5">
-        <v>-6.8487697718651731e-07</v>
+        <v>-6.8487697718651731E-7</v>
       </c>
       <c r="S5">
-        <v>-4.4220195967687207e-05</v>
+        <v>-4.4220195967687207E-5</v>
       </c>
       <c r="T5">
-        <v>6.7447702246168869e-05</v>
+        <v>6.7447702246168869E-5</v>
       </c>
       <c r="U5">
-        <v>-0.0042691626319761866</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>-4.2691626319761866E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.067783531048252785</v>
+        <v>-6.7783531048252785E-2</v>
       </c>
       <c r="C6">
-        <v>-0.00040060894380091768</v>
+        <v>-4.0060894380091768E-4</v>
       </c>
       <c r="D6">
-        <v>0.0004732660896220399</v>
+        <v>4.732660896220399E-4</v>
       </c>
       <c r="E6">
-        <v>-7.7945898037810748e-06</v>
+        <v>-7.7945898037810748E-6</v>
       </c>
       <c r="F6">
-        <v>0.0015066667291554472</v>
+        <v>1.5066667291554472E-3</v>
       </c>
       <c r="G6">
-        <v>0.0039992577185471697</v>
+        <v>3.9992577185471697E-3</v>
       </c>
       <c r="H6">
-        <v>-0.00043291307115435698</v>
+        <v>-4.3291307115435698E-4</v>
       </c>
       <c r="I6">
-        <v>-0.00037732699457732424</v>
+        <v>-3.7732699457732424E-4</v>
       </c>
       <c r="J6">
-        <v>8.9112026555689854e-06</v>
+        <v>8.9112026555689854E-6</v>
       </c>
       <c r="K6">
-        <v>-0.00021857731631868106</v>
+        <v>-2.1857731631868106E-4</v>
       </c>
       <c r="L6">
-        <v>5.1421154076669996e-05</v>
+        <v>5.1421154076669996E-5</v>
       </c>
       <c r="M6">
-        <v>0.00025963440700301887</v>
+        <v>2.5963440700301887E-4</v>
       </c>
       <c r="N6">
-        <v>-0.00037850492889467265</v>
+        <v>-3.7850492889467265E-4</v>
       </c>
       <c r="O6">
-        <v>5.3262374828049559e-05</v>
+        <v>5.3262374828049559E-5</v>
       </c>
       <c r="P6">
-        <v>-0.00021684858502645681</v>
+        <v>-2.1684858502645681E-4</v>
       </c>
       <c r="Q6">
-        <v>-9.4786869963811625e-05</v>
+        <v>-9.4786869963811625E-5</v>
       </c>
       <c r="R6">
-        <v>-2.3820455282759842e-05</v>
+        <v>-2.3820455282759842E-5</v>
       </c>
       <c r="S6">
-        <v>4.1313905271879448e-06</v>
+        <v>4.1313905271879448E-6</v>
       </c>
       <c r="T6">
-        <v>-6.1568372747151196e-05</v>
+        <v>-6.1568372747151196E-5</v>
       </c>
       <c r="U6">
-        <v>-0.0074874473185019535</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>-7.4874473185019535E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -772,64 +1079,64 @@
         <v>-0.22452725122149886</v>
       </c>
       <c r="C7">
-        <v>0.0002149649412465649</v>
+        <v>2.149649412465649E-4</v>
       </c>
       <c r="D7">
-        <v>0.00050213167029426677</v>
+        <v>5.0213167029426677E-4</v>
       </c>
       <c r="E7">
-        <v>-7.3836953688990724e-06</v>
+        <v>-7.3836953688990724E-6</v>
       </c>
       <c r="F7">
-        <v>-0.00011799027341086188</v>
+        <v>-1.1799027341086188E-4</v>
       </c>
       <c r="G7">
-        <v>-0.00043291307115435698</v>
+        <v>-4.3291307115435698E-4</v>
       </c>
       <c r="H7">
-        <v>0.0053688513841993381</v>
+        <v>5.3688513841993381E-3</v>
       </c>
       <c r="I7">
-        <v>0.0017449682782647636</v>
+        <v>1.7449682782647636E-3</v>
       </c>
       <c r="J7">
-        <v>-0.00025401884449478503</v>
+        <v>-2.5401884449478503E-4</v>
       </c>
       <c r="K7">
-        <v>0.001060180952462328</v>
+        <v>1.060180952462328E-3</v>
       </c>
       <c r="L7">
-        <v>0.0014466544980118463</v>
+        <v>1.4466544980118463E-3</v>
       </c>
       <c r="M7">
-        <v>0.0013691447282565934</v>
+        <v>1.3691447282565934E-3</v>
       </c>
       <c r="N7">
-        <v>0.00015317080334260034</v>
+        <v>1.5317080334260034E-4</v>
       </c>
       <c r="O7">
-        <v>-0.00037699901365700656</v>
+        <v>-3.7699901365700656E-4</v>
       </c>
       <c r="P7">
-        <v>-1.0123752452612274e-05</v>
+        <v>-1.0123752452612274E-5</v>
       </c>
       <c r="Q7">
-        <v>-0.0003277310157825228</v>
+        <v>-3.277310157825228E-4</v>
       </c>
       <c r="R7">
-        <v>-3.9144891448469204e-05</v>
+        <v>-3.9144891448469204E-5</v>
       </c>
       <c r="S7">
-        <v>9.4191911000442163e-05</v>
+        <v>9.4191911000442163E-5</v>
       </c>
       <c r="T7">
-        <v>9.16467124554665e-05</v>
+        <v>9.16467124554665E-5</v>
       </c>
       <c r="U7">
-        <v>-0.0090534163073582065</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>-9.0534163073582065E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -837,324 +1144,324 @@
         <v>-0.1440927124372435</v>
       </c>
       <c r="C8">
-        <v>-5.2437605660415442e-05</v>
+        <v>-5.2437605660415442E-5</v>
       </c>
       <c r="D8">
-        <v>0.00019411985163656615</v>
+        <v>1.9411985163656615E-4</v>
       </c>
       <c r="E8">
-        <v>-3.151320122479334e-06</v>
+        <v>-3.151320122479334E-6</v>
       </c>
       <c r="F8">
-        <v>-0.00011777421416991597</v>
+        <v>-1.1777421416991597E-4</v>
       </c>
       <c r="G8">
-        <v>-0.00037732699457732424</v>
+        <v>-3.7732699457732424E-4</v>
       </c>
       <c r="H8">
-        <v>0.0017449682782647636</v>
+        <v>1.7449682782647636E-3</v>
       </c>
       <c r="I8">
-        <v>0.0027454498461589581</v>
+        <v>2.7454498461589581E-3</v>
       </c>
       <c r="J8">
-        <v>-0.00028098887973769125</v>
+        <v>-2.8098887973769125E-4</v>
       </c>
       <c r="K8">
-        <v>0.00097925648974747496</v>
+        <v>9.7925648974747496E-4</v>
       </c>
       <c r="L8">
-        <v>0.0015728222673578986</v>
+        <v>1.5728222673578986E-3</v>
       </c>
       <c r="M8">
-        <v>0.0014861060082732047</v>
+        <v>1.4861060082732047E-3</v>
       </c>
       <c r="N8">
-        <v>-9.149659194442961e-05</v>
+        <v>-9.149659194442961E-5</v>
       </c>
       <c r="O8">
-        <v>-0.00023582536603150019</v>
+        <v>-2.3582536603150019E-4</v>
       </c>
       <c r="P8">
-        <v>-5.1535513790473613e-05</v>
+        <v>-5.1535513790473613E-5</v>
       </c>
       <c r="Q8">
-        <v>-0.00011643414685258505</v>
+        <v>-1.1643414685258505E-4</v>
       </c>
       <c r="R8">
-        <v>2.9504922762596335e-05</v>
+        <v>2.9504922762596335E-5</v>
       </c>
       <c r="S8">
-        <v>-0.00015215648639962958</v>
+        <v>-1.5215648639962958E-4</v>
       </c>
       <c r="T8">
-        <v>-0.00015252090905032109</v>
+        <v>-1.5252090905032109E-4</v>
       </c>
       <c r="U8">
-        <v>-0.0048222510672246682</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>-4.8222510672246682E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.01166640695335194</v>
+        <v>1.166640695335194E-2</v>
       </c>
       <c r="C9">
-        <v>0.0001721836776311771</v>
+        <v>1.721836776311771E-4</v>
       </c>
       <c r="D9">
-        <v>1.027784086652132e-05</v>
+        <v>1.027784086652132E-5</v>
       </c>
       <c r="E9">
-        <v>-2.9061442938470284e-07</v>
+        <v>-2.9061442938470284E-7</v>
       </c>
       <c r="F9">
-        <v>-4.4761623489963584e-05</v>
+        <v>-4.4761623489963584E-5</v>
       </c>
       <c r="G9">
-        <v>8.9112026555689854e-06</v>
+        <v>8.9112026555689854E-6</v>
       </c>
       <c r="H9">
-        <v>-0.00025401884449478503</v>
+        <v>-2.5401884449478503E-4</v>
       </c>
       <c r="I9">
-        <v>-0.00028098887973769125</v>
+        <v>-2.8098887973769125E-4</v>
       </c>
       <c r="J9">
-        <v>0.0034414538869775588</v>
+        <v>3.4414538869775588E-3</v>
       </c>
       <c r="K9">
-        <v>0.0014903156965762408</v>
+        <v>1.4903156965762408E-3</v>
       </c>
       <c r="L9">
-        <v>0.0014300453793526864</v>
+        <v>1.4300453793526864E-3</v>
       </c>
       <c r="M9">
-        <v>0.0014104049815142153</v>
+        <v>1.4104049815142153E-3</v>
       </c>
       <c r="N9">
-        <v>-1.086151781345767e-05</v>
+        <v>-1.086151781345767E-5</v>
       </c>
       <c r="O9">
-        <v>-0.00014431040316841183</v>
+        <v>-1.4431040316841183E-4</v>
       </c>
       <c r="P9">
-        <v>-0.00014778708821600449</v>
+        <v>-1.4778708821600449E-4</v>
       </c>
       <c r="Q9">
-        <v>-1.1044273794886893e-05</v>
+        <v>-1.1044273794886893E-5</v>
       </c>
       <c r="R9">
-        <v>1.0299359341363961e-05</v>
+        <v>1.0299359341363961E-5</v>
       </c>
       <c r="S9">
-        <v>-8.6939127874174359e-05</v>
+        <v>-8.6939127874174359E-5</v>
       </c>
       <c r="T9">
-        <v>-7.043991228708593e-05</v>
+        <v>-7.043991228708593E-5</v>
       </c>
       <c r="U9">
-        <v>-0.0016615666764436651</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>-1.6615666764436651E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.020427346860500312</v>
+        <v>-2.0427346860500312E-2</v>
       </c>
       <c r="C10">
-        <v>0.00013799019905741077</v>
+        <v>1.3799019905741077E-4</v>
       </c>
       <c r="D10">
-        <v>-0.00013914404090936586</v>
+        <v>-1.3914404090936586E-4</v>
       </c>
       <c r="E10">
-        <v>2.2877256176276093e-06</v>
+        <v>2.2877256176276093E-6</v>
       </c>
       <c r="F10">
-        <v>-0.00018008890678033828</v>
+        <v>-1.8008890678033828E-4</v>
       </c>
       <c r="G10">
-        <v>-0.00021857731631868106</v>
+        <v>-2.1857731631868106E-4</v>
       </c>
       <c r="H10">
-        <v>0.001060180952462328</v>
+        <v>1.060180952462328E-3</v>
       </c>
       <c r="I10">
-        <v>0.00097925648974747496</v>
+        <v>9.7925648974747496E-4</v>
       </c>
       <c r="J10">
-        <v>0.0014903156965762408</v>
+        <v>1.4903156965762408E-3</v>
       </c>
       <c r="K10">
-        <v>0.0032479408516479864</v>
+        <v>3.2479408516479864E-3</v>
       </c>
       <c r="L10">
-        <v>0.0023233454968725718</v>
+        <v>2.3233454968725718E-3</v>
       </c>
       <c r="M10">
-        <v>0.0022520940553292018</v>
+        <v>2.2520940553292018E-3</v>
       </c>
       <c r="N10">
-        <v>-6.7632060128407115e-05</v>
+        <v>-6.7632060128407115E-5</v>
       </c>
       <c r="O10">
-        <v>-0.00030426127889508742</v>
+        <v>-3.0426127889508742E-4</v>
       </c>
       <c r="P10">
-        <v>-0.00010203493748716096</v>
+        <v>-1.0203493748716096E-4</v>
       </c>
       <c r="Q10">
-        <v>-0.00011936698787118924</v>
+        <v>-1.1936698787118924E-4</v>
       </c>
       <c r="R10">
-        <v>9.1226778257872098e-06</v>
+        <v>9.1226778257872098E-6</v>
       </c>
       <c r="S10">
-        <v>8.2147868456146133e-05</v>
+        <v>8.2147868456146133E-5</v>
       </c>
       <c r="T10">
-        <v>8.5350875668950262e-05</v>
+        <v>8.5350875668950262E-5</v>
       </c>
       <c r="U10">
-        <v>-0.0003212973557266529</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>-3.212973557266529E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.070467002320354036</v>
+        <v>-7.0467002320354036E-2</v>
       </c>
       <c r="C11">
-        <v>5.0465514385089379e-05</v>
+        <v>5.0465514385089379E-5</v>
       </c>
       <c r="D11">
-        <v>-0.00014221730512971494</v>
+        <v>-1.4221730512971494E-4</v>
       </c>
       <c r="E11">
-        <v>1.977062399601804e-06</v>
+        <v>1.977062399601804E-6</v>
       </c>
       <c r="F11">
-        <v>1.2838484880973848e-05</v>
+        <v>1.2838484880973848E-5</v>
       </c>
       <c r="G11">
-        <v>5.1421154076669996e-05</v>
+        <v>5.1421154076669996E-5</v>
       </c>
       <c r="H11">
-        <v>0.0014466544980118463</v>
+        <v>1.4466544980118463E-3</v>
       </c>
       <c r="I11">
-        <v>0.0015728222673578986</v>
+        <v>1.5728222673578986E-3</v>
       </c>
       <c r="J11">
-        <v>0.0014300453793526864</v>
+        <v>1.4300453793526864E-3</v>
       </c>
       <c r="K11">
-        <v>0.0023233454968725718</v>
+        <v>2.3233454968725718E-3</v>
       </c>
       <c r="L11">
-        <v>0.003832777209407447</v>
+        <v>3.832777209407447E-3</v>
       </c>
       <c r="M11">
-        <v>0.0027365738345017888</v>
+        <v>2.7365738345017888E-3</v>
       </c>
       <c r="N11">
-        <v>-0.00019547607332188368</v>
+        <v>-1.9547607332188368E-4</v>
       </c>
       <c r="O11">
-        <v>6.3903344558050685e-05</v>
+        <v>6.3903344558050685E-5</v>
       </c>
       <c r="P11">
-        <v>-8.223042449804238e-05</v>
+        <v>-8.223042449804238E-5</v>
       </c>
       <c r="Q11">
-        <v>-0.000148832605013917</v>
+        <v>-1.48832605013917E-4</v>
       </c>
       <c r="R11">
-        <v>2.3687991519444605e-05</v>
+        <v>2.3687991519444605E-5</v>
       </c>
       <c r="S11">
-        <v>-0.00021513746205831913</v>
+        <v>-2.1513746205831913E-4</v>
       </c>
       <c r="T11">
-        <v>-0.00011260595177313594</v>
+        <v>-1.1260595177313594E-4</v>
       </c>
       <c r="U11">
-        <v>-0.00073598783831022735</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>-7.3598783831022735E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.027771788713505035</v>
+        <v>-2.7771788713505035E-2</v>
       </c>
       <c r="C12">
-        <v>-0.00011503667230241461</v>
+        <v>-1.1503667230241461E-4</v>
       </c>
       <c r="D12">
-        <v>-4.9792161380392448e-05</v>
+        <v>-4.9792161380392448E-5</v>
       </c>
       <c r="E12">
-        <v>4.4601625735538839e-07</v>
+        <v>4.4601625735538839E-7</v>
       </c>
       <c r="F12">
-        <v>0.00027584921765370679</v>
+        <v>2.7584921765370679E-4</v>
       </c>
       <c r="G12">
-        <v>0.00025963440700301887</v>
+        <v>2.5963440700301887E-4</v>
       </c>
       <c r="H12">
-        <v>0.0013691447282565934</v>
+        <v>1.3691447282565934E-3</v>
       </c>
       <c r="I12">
-        <v>0.0014861060082732047</v>
+        <v>1.4861060082732047E-3</v>
       </c>
       <c r="J12">
-        <v>0.0014104049815142153</v>
+        <v>1.4104049815142153E-3</v>
       </c>
       <c r="K12">
-        <v>0.0022520940553292018</v>
+        <v>2.2520940553292018E-3</v>
       </c>
       <c r="L12">
-        <v>0.0027365738345017888</v>
+        <v>2.7365738345017888E-3</v>
       </c>
       <c r="M12">
-        <v>0.0050078802085193894</v>
+        <v>5.0078802085193894E-3</v>
       </c>
       <c r="N12">
-        <v>-1.4250862715585921e-05</v>
+        <v>-1.4250862715585921E-5</v>
       </c>
       <c r="O12">
-        <v>-0.00018825313401583211</v>
+        <v>-1.8825313401583211E-4</v>
       </c>
       <c r="P12">
-        <v>0.00012494752379198004</v>
+        <v>1.2494752379198004E-4</v>
       </c>
       <c r="Q12">
-        <v>8.6872204246171643e-05</v>
+        <v>8.6872204246171643E-5</v>
       </c>
       <c r="R12">
-        <v>2.742824086117057e-05</v>
+        <v>2.742824086117057E-5</v>
       </c>
       <c r="S12">
-        <v>-0.00013327134659666648</v>
+        <v>-1.3327134659666648E-4</v>
       </c>
       <c r="T12">
-        <v>-0.00037617015064693714</v>
+        <v>-3.7617015064693714E-4</v>
       </c>
       <c r="U12">
-        <v>-0.0022972632443164576</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>-2.2972632443164576E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1162,64 +1469,64 @@
         <v>-0.11087398175453632</v>
       </c>
       <c r="C13">
-        <v>-0.00014458703327079053</v>
+        <v>-1.4458703327079053E-4</v>
       </c>
       <c r="D13">
-        <v>-0.00010759854636406595</v>
+        <v>-1.0759854636406595E-4</v>
       </c>
       <c r="E13">
-        <v>1.5744898127945065e-06</v>
+        <v>1.5744898127945065E-6</v>
       </c>
       <c r="F13">
-        <v>-0.00016161980480349164</v>
+        <v>-1.6161980480349164E-4</v>
       </c>
       <c r="G13">
-        <v>-0.00037850492889467265</v>
+        <v>-3.7850492889467265E-4</v>
       </c>
       <c r="H13">
-        <v>0.00015317080334260034</v>
+        <v>1.5317080334260034E-4</v>
       </c>
       <c r="I13">
-        <v>-9.149659194442961e-05</v>
+        <v>-9.149659194442961E-5</v>
       </c>
       <c r="J13">
-        <v>-1.086151781345767e-05</v>
+        <v>-1.086151781345767E-5</v>
       </c>
       <c r="K13">
-        <v>-6.7632060128407115e-05</v>
+        <v>-6.7632060128407115E-5</v>
       </c>
       <c r="L13">
-        <v>-0.00019547607332188368</v>
+        <v>-1.9547607332188368E-4</v>
       </c>
       <c r="M13">
-        <v>-1.4250862715585921e-05</v>
+        <v>-1.4250862715585921E-5</v>
       </c>
       <c r="N13">
-        <v>0.0031288599272371012</v>
+        <v>3.1288599272371012E-3</v>
       </c>
       <c r="O13">
-        <v>0.0013271368383973878</v>
+        <v>1.3271368383973878E-3</v>
       </c>
       <c r="P13">
-        <v>0.0013297543497229332</v>
+        <v>1.3297543497229332E-3</v>
       </c>
       <c r="Q13">
-        <v>0.0013207397835183574</v>
+        <v>1.3207397835183574E-3</v>
       </c>
       <c r="R13">
-        <v>-4.7232901444700956e-06</v>
+        <v>-4.7232901444700956E-6</v>
       </c>
       <c r="S13">
-        <v>-1.7642018403290395e-05</v>
+        <v>-1.7642018403290395E-5</v>
       </c>
       <c r="T13">
-        <v>-9.3972128966314002e-06</v>
+        <v>-9.3972128966314002E-6</v>
       </c>
       <c r="U13">
-        <v>0.00082515707839152794</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>8.2515707839152794E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1227,64 +1534,64 @@
         <v>-0.12835996359433108</v>
       </c>
       <c r="C14">
-        <v>-5.1867126288749474e-05</v>
+        <v>-5.1867126288749474E-5</v>
       </c>
       <c r="D14">
-        <v>-8.4849050518204325e-05</v>
+        <v>-8.4849050518204325E-5</v>
       </c>
       <c r="E14">
-        <v>8.551322654478527e-07</v>
+        <v>8.551322654478527E-7</v>
       </c>
       <c r="F14">
-        <v>0.00017233356922551882</v>
+        <v>1.7233356922551882E-4</v>
       </c>
       <c r="G14">
-        <v>5.3262374828049559e-05</v>
+        <v>5.3262374828049559E-5</v>
       </c>
       <c r="H14">
-        <v>-0.00037699901365700656</v>
+        <v>-3.7699901365700656E-4</v>
       </c>
       <c r="I14">
-        <v>-0.00023582536603150019</v>
+        <v>-2.3582536603150019E-4</v>
       </c>
       <c r="J14">
-        <v>-0.00014431040316841183</v>
+        <v>-1.4431040316841183E-4</v>
       </c>
       <c r="K14">
-        <v>-0.00030426127889508742</v>
+        <v>-3.0426127889508742E-4</v>
       </c>
       <c r="L14">
-        <v>6.3903344558050685e-05</v>
+        <v>6.3903344558050685E-5</v>
       </c>
       <c r="M14">
-        <v>-0.00018825313401583211</v>
+        <v>-1.8825313401583211E-4</v>
       </c>
       <c r="N14">
-        <v>0.0013271368383973878</v>
+        <v>1.3271368383973878E-3</v>
       </c>
       <c r="O14">
-        <v>0.0053543768515321132</v>
+        <v>5.3543768515321132E-3</v>
       </c>
       <c r="P14">
-        <v>0.0013041586027415575</v>
+        <v>1.3041586027415575E-3</v>
       </c>
       <c r="Q14">
-        <v>0.0013358310573085969</v>
+        <v>1.3358310573085969E-3</v>
       </c>
       <c r="R14">
-        <v>3.332400839939943e-05</v>
+        <v>3.332400839939943E-5</v>
       </c>
       <c r="S14">
-        <v>-0.00049048317794241883</v>
+        <v>-4.9048317794241883E-4</v>
       </c>
       <c r="T14">
-        <v>-0.00031911604119511539</v>
+        <v>-3.1911604119511539E-4</v>
       </c>
       <c r="U14">
-        <v>-9.7458145423623475e-06</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>-9.7458145423623475E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1292,324 +1599,324 @@
         <v>-0.10341243734068521</v>
       </c>
       <c r="C15">
-        <v>-8.0001856939382148e-05</v>
+        <v>-8.0001856939382148E-5</v>
       </c>
       <c r="D15">
-        <v>-8.4927254428683249e-05</v>
+        <v>-8.4927254428683249E-5</v>
       </c>
       <c r="E15">
-        <v>1.1261326590273982e-06</v>
+        <v>1.1261326590273982E-6</v>
       </c>
       <c r="F15">
-        <v>6.6058283828845054e-05</v>
+        <v>6.6058283828845054E-5</v>
       </c>
       <c r="G15">
-        <v>-0.00021684858502645681</v>
+        <v>-2.1684858502645681E-4</v>
       </c>
       <c r="H15">
-        <v>-1.0123752452612274e-05</v>
+        <v>-1.0123752452612274E-5</v>
       </c>
       <c r="I15">
-        <v>-5.1535513790473613e-05</v>
+        <v>-5.1535513790473613E-5</v>
       </c>
       <c r="J15">
-        <v>-0.00014778708821600449</v>
+        <v>-1.4778708821600449E-4</v>
       </c>
       <c r="K15">
-        <v>-0.00010203493748716096</v>
+        <v>-1.0203493748716096E-4</v>
       </c>
       <c r="L15">
-        <v>-8.223042449804238e-05</v>
+        <v>-8.223042449804238E-5</v>
       </c>
       <c r="M15">
-        <v>0.00012494752379198004</v>
+        <v>1.2494752379198004E-4</v>
       </c>
       <c r="N15">
-        <v>0.0013297543497229332</v>
+        <v>1.3297543497229332E-3</v>
       </c>
       <c r="O15">
-        <v>0.0013041586027415575</v>
+        <v>1.3041586027415575E-3</v>
       </c>
       <c r="P15">
-        <v>0.0033275528469612087</v>
+        <v>3.3275528469612087E-3</v>
       </c>
       <c r="Q15">
-        <v>0.0013316653094292941</v>
+        <v>1.3316653094292941E-3</v>
       </c>
       <c r="R15">
-        <v>-3.5268833861207671e-06</v>
+        <v>-3.5268833861207671E-6</v>
       </c>
       <c r="S15">
-        <v>-0.00010578852919365816</v>
+        <v>-1.0578852919365816E-4</v>
       </c>
       <c r="T15">
-        <v>2.9159500640443527e-05</v>
+        <v>2.9159500640443527E-5</v>
       </c>
       <c r="U15">
-        <v>0.00032995102065062334</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>3.2995102065062334E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.068904819689100935</v>
+        <v>-6.8904819689100935E-2</v>
       </c>
       <c r="C16">
-        <v>-0.00012947880316783935</v>
+        <v>-1.2947880316783935E-4</v>
       </c>
       <c r="D16">
-        <v>-9.6837043590702128e-05</v>
+        <v>-9.6837043590702128E-5</v>
       </c>
       <c r="E16">
-        <v>1.368553637551854e-06</v>
+        <v>1.368553637551854E-6</v>
       </c>
       <c r="F16">
-        <v>9.3981603891204302e-05</v>
+        <v>9.3981603891204302E-5</v>
       </c>
       <c r="G16">
-        <v>-9.4786869963811625e-05</v>
+        <v>-9.4786869963811625E-5</v>
       </c>
       <c r="H16">
-        <v>-0.0003277310157825228</v>
+        <v>-3.277310157825228E-4</v>
       </c>
       <c r="I16">
-        <v>-0.00011643414685258505</v>
+        <v>-1.1643414685258505E-4</v>
       </c>
       <c r="J16">
-        <v>-1.1044273794886893e-05</v>
+        <v>-1.1044273794886893E-5</v>
       </c>
       <c r="K16">
-        <v>-0.00011936698787118924</v>
+        <v>-1.1936698787118924E-4</v>
       </c>
       <c r="L16">
-        <v>-0.000148832605013917</v>
+        <v>-1.48832605013917E-4</v>
       </c>
       <c r="M16">
-        <v>8.6872204246171643e-05</v>
+        <v>8.6872204246171643E-5</v>
       </c>
       <c r="N16">
-        <v>0.0013207397835183574</v>
+        <v>1.3207397835183574E-3</v>
       </c>
       <c r="O16">
-        <v>0.0013358310573085969</v>
+        <v>1.3358310573085969E-3</v>
       </c>
       <c r="P16">
-        <v>0.0013316653094292941</v>
+        <v>1.3316653094292941E-3</v>
       </c>
       <c r="Q16">
-        <v>0.0021038468354393608</v>
+        <v>2.1038468354393608E-3</v>
       </c>
       <c r="R16">
-        <v>6.9844361934817279e-07</v>
+        <v>6.9844361934817279E-7</v>
       </c>
       <c r="S16">
-        <v>-7.7944681850186912e-06</v>
+        <v>-7.7944681850186912E-6</v>
       </c>
       <c r="T16">
-        <v>3.7195987760176832e-05</v>
+        <v>3.7195987760176832E-5</v>
       </c>
       <c r="U16">
-        <v>0.00042348505898205148</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>4.2348505898205148E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
       <c r="B17">
-        <v>5.5785384575010463e-06</v>
+        <v>5.5785384575010463E-6</v>
       </c>
       <c r="C17">
-        <v>1.0165724432990153e-05</v>
+        <v>1.0165724432990153E-5</v>
       </c>
       <c r="D17">
-        <v>3.9585230328766444e-06</v>
+        <v>3.9585230328766444E-6</v>
       </c>
       <c r="E17">
-        <v>-1.0751696909061587e-07</v>
+        <v>-1.0751696909061587E-7</v>
       </c>
       <c r="F17">
-        <v>-6.8487697718651731e-07</v>
+        <v>-6.8487697718651731E-7</v>
       </c>
       <c r="G17">
-        <v>-2.3820455282759842e-05</v>
+        <v>-2.3820455282759842E-5</v>
       </c>
       <c r="H17">
-        <v>-3.9144891448469204e-05</v>
+        <v>-3.9144891448469204E-5</v>
       </c>
       <c r="I17">
-        <v>2.9504922762596335e-05</v>
+        <v>2.9504922762596335E-5</v>
       </c>
       <c r="J17">
-        <v>1.0299359341363961e-05</v>
+        <v>1.0299359341363961E-5</v>
       </c>
       <c r="K17">
-        <v>9.1226778257872098e-06</v>
+        <v>9.1226778257872098E-6</v>
       </c>
       <c r="L17">
-        <v>2.3687991519444605e-05</v>
+        <v>2.3687991519444605E-5</v>
       </c>
       <c r="M17">
-        <v>2.742824086117057e-05</v>
+        <v>2.742824086117057E-5</v>
       </c>
       <c r="N17">
-        <v>-4.7232901444700956e-06</v>
+        <v>-4.7232901444700956E-6</v>
       </c>
       <c r="O17">
-        <v>3.332400839939943e-05</v>
+        <v>3.332400839939943E-5</v>
       </c>
       <c r="P17">
-        <v>-3.5268833861207671e-06</v>
+        <v>-3.5268833861207671E-6</v>
       </c>
       <c r="Q17">
-        <v>6.9844361934817279e-07</v>
+        <v>6.9844361934817279E-7</v>
       </c>
       <c r="R17">
-        <v>2.5246780785190027e-05</v>
+        <v>2.5246780785190027E-5</v>
       </c>
       <c r="S17">
-        <v>-0.00010544718383621765</v>
+        <v>-1.0544718383621765E-4</v>
       </c>
       <c r="T17">
-        <v>-0.00012597555574303429</v>
+        <v>-1.2597555574303429E-4</v>
       </c>
       <c r="U17">
-        <v>-0.00044705509730369269</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>-4.4705509730369269E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18">
-        <v>0.039898042913459074</v>
+        <v>3.9898042913459074E-2</v>
       </c>
       <c r="C18">
-        <v>-0.00012896466474044275</v>
+        <v>-1.2896466474044275E-4</v>
       </c>
       <c r="D18">
-        <v>0.00012307788391941398</v>
+        <v>1.2307788391941398E-4</v>
       </c>
       <c r="E18">
-        <v>-1.6223388833581656e-06</v>
+        <v>-1.6223388833581656E-6</v>
       </c>
       <c r="F18">
-        <v>-4.4220195967687207e-05</v>
+        <v>-4.4220195967687207E-5</v>
       </c>
       <c r="G18">
-        <v>4.1313905271879448e-06</v>
+        <v>4.1313905271879448E-6</v>
       </c>
       <c r="H18">
-        <v>9.4191911000442163e-05</v>
+        <v>9.4191911000442163E-5</v>
       </c>
       <c r="I18">
-        <v>-0.00015215648639962958</v>
+        <v>-1.5215648639962958E-4</v>
       </c>
       <c r="J18">
-        <v>-8.6939127874174359e-05</v>
+        <v>-8.6939127874174359E-5</v>
       </c>
       <c r="K18">
-        <v>8.2147868456146133e-05</v>
+        <v>8.2147868456146133E-5</v>
       </c>
       <c r="L18">
-        <v>-0.00021513746205831913</v>
+        <v>-2.1513746205831913E-4</v>
       </c>
       <c r="M18">
-        <v>-0.00013327134659666648</v>
+        <v>-1.3327134659666648E-4</v>
       </c>
       <c r="N18">
-        <v>-1.7642018403290395e-05</v>
+        <v>-1.7642018403290395E-5</v>
       </c>
       <c r="O18">
-        <v>-0.00049048317794241883</v>
+        <v>-4.9048317794241883E-4</v>
       </c>
       <c r="P18">
-        <v>-0.00010578852919365816</v>
+        <v>-1.0578852919365816E-4</v>
       </c>
       <c r="Q18">
-        <v>-7.7944681850186912e-06</v>
+        <v>-7.7944681850186912E-6</v>
       </c>
       <c r="R18">
-        <v>-0.00010544718383621765</v>
+        <v>-1.0544718383621765E-4</v>
       </c>
       <c r="S18">
-        <v>0.0043746579972192392</v>
+        <v>4.3746579972192392E-3</v>
       </c>
       <c r="T18">
-        <v>0.0008584871810464181</v>
+        <v>8.584871810464181E-4</v>
       </c>
       <c r="U18">
-        <v>-0.0005376584885529636</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>-5.376584885529636E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19">
-        <v>0.034221911168741945</v>
+        <v>3.4221911168741945E-2</v>
       </c>
       <c r="C19">
-        <v>-4.2692255085263314e-06</v>
+        <v>-4.2692255085263314E-6</v>
       </c>
       <c r="D19">
-        <v>-6.6450718994026658e-07</v>
+        <v>-6.6450718994026658E-7</v>
       </c>
       <c r="E19">
-        <v>-4.0830682533250242e-08</v>
+        <v>-4.0830682533250242E-8</v>
       </c>
       <c r="F19">
-        <v>6.7447702246168869e-05</v>
+        <v>6.7447702246168869E-5</v>
       </c>
       <c r="G19">
-        <v>-6.1568372747151196e-05</v>
+        <v>-6.1568372747151196E-5</v>
       </c>
       <c r="H19">
-        <v>9.16467124554665e-05</v>
+        <v>9.16467124554665E-5</v>
       </c>
       <c r="I19">
-        <v>-0.00015252090905032109</v>
+        <v>-1.5252090905032109E-4</v>
       </c>
       <c r="J19">
-        <v>-7.043991228708593e-05</v>
+        <v>-7.043991228708593E-5</v>
       </c>
       <c r="K19">
-        <v>8.5350875668950262e-05</v>
+        <v>8.5350875668950262E-5</v>
       </c>
       <c r="L19">
-        <v>-0.00011260595177313594</v>
+        <v>-1.1260595177313594E-4</v>
       </c>
       <c r="M19">
-        <v>-0.00037617015064693714</v>
+        <v>-3.7617015064693714E-4</v>
       </c>
       <c r="N19">
-        <v>-9.3972128966314002e-06</v>
+        <v>-9.3972128966314002E-6</v>
       </c>
       <c r="O19">
-        <v>-0.00031911604119511539</v>
+        <v>-3.1911604119511539E-4</v>
       </c>
       <c r="P19">
-        <v>2.9159500640443527e-05</v>
+        <v>2.9159500640443527E-5</v>
       </c>
       <c r="Q19">
-        <v>3.7195987760176832e-05</v>
+        <v>3.7195987760176832E-5</v>
       </c>
       <c r="R19">
-        <v>-0.00012597555574303429</v>
+        <v>-1.2597555574303429E-4</v>
       </c>
       <c r="S19">
-        <v>0.0008584871810464181</v>
+        <v>8.584871810464181E-4</v>
       </c>
       <c r="T19">
-        <v>0.0055638359667314289</v>
+        <v>5.5638359667314289E-3</v>
       </c>
       <c r="U19">
-        <v>0.0018046920809356552</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1.8046920809356552E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1617,63 +1924,1379 @@
         <v>-1.8924412731065168</v>
       </c>
       <c r="C20">
-        <v>0.00046697036394668262</v>
+        <v>4.6697036394668262E-4</v>
       </c>
       <c r="D20">
-        <v>-0.014361770494688467</v>
+        <v>-1.4361770494688467E-2</v>
       </c>
       <c r="E20">
-        <v>0.0002398165347949532</v>
+        <v>2.398165347949532E-4</v>
       </c>
       <c r="F20">
-        <v>-0.0042691626319761866</v>
+        <v>-4.2691626319761866E-3</v>
       </c>
       <c r="G20">
-        <v>-0.0074874473185019535</v>
+        <v>-7.4874473185019535E-3</v>
       </c>
       <c r="H20">
-        <v>-0.0090534163073582065</v>
+        <v>-9.0534163073582065E-3</v>
       </c>
       <c r="I20">
-        <v>-0.0048222510672246682</v>
+        <v>-4.8222510672246682E-3</v>
       </c>
       <c r="J20">
-        <v>-0.0016615666764436651</v>
+        <v>-1.6615666764436651E-3</v>
       </c>
       <c r="K20">
-        <v>-0.0003212973557266529</v>
+        <v>-3.212973557266529E-4</v>
       </c>
       <c r="L20">
-        <v>-0.00073598783831022735</v>
+        <v>-7.3598783831022735E-4</v>
       </c>
       <c r="M20">
-        <v>-0.0022972632443164576</v>
+        <v>-2.2972632443164576E-3</v>
       </c>
       <c r="N20">
-        <v>0.00082515707839152794</v>
+        <v>8.2515707839152794E-4</v>
       </c>
       <c r="O20">
-        <v>-9.7458145423623475e-06</v>
+        <v>-9.7458145423623475E-6</v>
       </c>
       <c r="P20">
-        <v>0.00032995102065062334</v>
+        <v>3.2995102065062334E-4</v>
       </c>
       <c r="Q20">
-        <v>0.00042348505898205148</v>
+        <v>4.2348505898205148E-4</v>
       </c>
       <c r="R20">
-        <v>-0.00044705509730369269</v>
+        <v>-4.4705509730369269E-4</v>
       </c>
       <c r="S20">
-        <v>-0.0005376584885529636</v>
+        <v>-5.376584885529636E-4</v>
       </c>
       <c r="T20">
-        <v>0.0018046920809356552</v>
+        <v>1.8046920809356552E-3</v>
       </c>
       <c r="U20">
         <v>0.22069264832930358</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF50E6A-9D06-3C4C-A396-751C8A5EDD35}">
+  <dimension ref="A1:U20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:U20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>-0.14138840339847664</v>
+      </c>
+      <c r="C2">
+        <v>1.2949909739937949E-3</v>
+      </c>
+      <c r="D2">
+        <v>-7.0707827190605508E-5</v>
+      </c>
+      <c r="E2">
+        <v>1.0355188711930363E-6</v>
+      </c>
+      <c r="F2">
+        <v>-2.6624516257814731E-4</v>
+      </c>
+      <c r="G2">
+        <v>-4.0060894380091768E-4</v>
+      </c>
+      <c r="H2">
+        <v>2.149649412465649E-4</v>
+      </c>
+      <c r="I2">
+        <v>-5.2437605660415442E-5</v>
+      </c>
+      <c r="J2">
+        <v>1.721836776311771E-4</v>
+      </c>
+      <c r="K2">
+        <v>1.3799019905741077E-4</v>
+      </c>
+      <c r="L2">
+        <v>5.0465514385089379E-5</v>
+      </c>
+      <c r="M2">
+        <v>-1.1503667230241461E-4</v>
+      </c>
+      <c r="N2">
+        <v>-1.4458703327079053E-4</v>
+      </c>
+      <c r="O2">
+        <v>-5.1867126288749474E-5</v>
+      </c>
+      <c r="P2">
+        <v>-8.0001856939382148E-5</v>
+      </c>
+      <c r="Q2">
+        <v>-1.2947880316783935E-4</v>
+      </c>
+      <c r="R2">
+        <v>1.0165724432990153E-5</v>
+      </c>
+      <c r="S2">
+        <v>-1.2896466474044275E-4</v>
+      </c>
+      <c r="T2">
+        <v>-4.2692255085263314E-6</v>
+      </c>
+      <c r="U2">
+        <v>4.6697036394668262E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>-3.3214708718791619E-2</v>
+      </c>
+      <c r="C3">
+        <v>-7.0707827190605508E-5</v>
+      </c>
+      <c r="D3">
+        <v>9.9127823783277469E-4</v>
+      </c>
+      <c r="E3">
+        <v>-1.6680636489329086E-5</v>
+      </c>
+      <c r="F3">
+        <v>2.1198714305433646E-4</v>
+      </c>
+      <c r="G3">
+        <v>4.732660896220399E-4</v>
+      </c>
+      <c r="H3">
+        <v>5.0213167029426677E-4</v>
+      </c>
+      <c r="I3">
+        <v>1.9411985163656615E-4</v>
+      </c>
+      <c r="J3">
+        <v>1.027784086652132E-5</v>
+      </c>
+      <c r="K3">
+        <v>-1.3914404090936586E-4</v>
+      </c>
+      <c r="L3">
+        <v>-1.4221730512971494E-4</v>
+      </c>
+      <c r="M3">
+        <v>-4.9792161380392448E-5</v>
+      </c>
+      <c r="N3">
+        <v>-1.0759854636406595E-4</v>
+      </c>
+      <c r="O3">
+        <v>-8.4849050518204325E-5</v>
+      </c>
+      <c r="P3">
+        <v>-8.4927254428683249E-5</v>
+      </c>
+      <c r="Q3">
+        <v>-9.6837043590702128E-5</v>
+      </c>
+      <c r="R3">
+        <v>3.9585230328766444E-6</v>
+      </c>
+      <c r="S3">
+        <v>1.2307788391941398E-4</v>
+      </c>
+      <c r="T3">
+        <v>-6.6450718994026658E-7</v>
+      </c>
+      <c r="U3">
+        <v>-1.4361770494688467E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>1.8666188661770936E-3</v>
+      </c>
+      <c r="C4">
+        <v>1.0355188711930363E-6</v>
+      </c>
+      <c r="D4">
+        <v>-1.6680636489329086E-5</v>
+      </c>
+      <c r="E4">
+        <v>2.84131956996201E-7</v>
+      </c>
+      <c r="F4">
+        <v>-3.4785323114892528E-6</v>
+      </c>
+      <c r="G4">
+        <v>-7.7945898037810748E-6</v>
+      </c>
+      <c r="H4">
+        <v>-7.3836953688990724E-6</v>
+      </c>
+      <c r="I4">
+        <v>-3.151320122479334E-6</v>
+      </c>
+      <c r="J4">
+        <v>-2.9061442938470284E-7</v>
+      </c>
+      <c r="K4">
+        <v>2.2877256176276093E-6</v>
+      </c>
+      <c r="L4">
+        <v>1.977062399601804E-6</v>
+      </c>
+      <c r="M4">
+        <v>4.4601625735538839E-7</v>
+      </c>
+      <c r="N4">
+        <v>1.5744898127945065E-6</v>
+      </c>
+      <c r="O4">
+        <v>8.551322654478527E-7</v>
+      </c>
+      <c r="P4">
+        <v>1.1261326590273982E-6</v>
+      </c>
+      <c r="Q4">
+        <v>1.368553637551854E-6</v>
+      </c>
+      <c r="R4">
+        <v>-1.0751696909061587E-7</v>
+      </c>
+      <c r="S4">
+        <v>-1.6223388833581656E-6</v>
+      </c>
+      <c r="T4">
+        <v>-4.0830682533250242E-8</v>
+      </c>
+      <c r="U4">
+        <v>2.398165347949532E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>-5.0199449907309082E-2</v>
+      </c>
+      <c r="C5">
+        <v>-2.6624516257814731E-4</v>
+      </c>
+      <c r="D5">
+        <v>2.1198714305433646E-4</v>
+      </c>
+      <c r="E5">
+        <v>-3.4785323114892528E-6</v>
+      </c>
+      <c r="F5">
+        <v>1.8498826230517016E-3</v>
+      </c>
+      <c r="G5">
+        <v>1.5066667291554472E-3</v>
+      </c>
+      <c r="H5">
+        <v>-1.1799027341086188E-4</v>
+      </c>
+      <c r="I5">
+        <v>-1.1777421416991597E-4</v>
+      </c>
+      <c r="J5">
+        <v>-4.4761623489963584E-5</v>
+      </c>
+      <c r="K5">
+        <v>-1.8008890678033828E-4</v>
+      </c>
+      <c r="L5">
+        <v>1.2838484880973848E-5</v>
+      </c>
+      <c r="M5">
+        <v>2.7584921765370679E-4</v>
+      </c>
+      <c r="N5">
+        <v>-1.6161980480349164E-4</v>
+      </c>
+      <c r="O5">
+        <v>1.7233356922551882E-4</v>
+      </c>
+      <c r="P5">
+        <v>6.6058283828845054E-5</v>
+      </c>
+      <c r="Q5">
+        <v>9.3981603891204302E-5</v>
+      </c>
+      <c r="R5">
+        <v>-6.8487697718651731E-7</v>
+      </c>
+      <c r="S5">
+        <v>-4.4220195967687207E-5</v>
+      </c>
+      <c r="T5">
+        <v>6.7447702246168869E-5</v>
+      </c>
+      <c r="U5">
+        <v>-4.2691626319761866E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>-6.7783531048252785E-2</v>
+      </c>
+      <c r="C6">
+        <v>-4.0060894380091768E-4</v>
+      </c>
+      <c r="D6">
+        <v>4.732660896220399E-4</v>
+      </c>
+      <c r="E6">
+        <v>-7.7945898037810748E-6</v>
+      </c>
+      <c r="F6">
+        <v>1.5066667291554472E-3</v>
+      </c>
+      <c r="G6">
+        <v>3.9992577185471697E-3</v>
+      </c>
+      <c r="H6">
+        <v>-4.3291307115435698E-4</v>
+      </c>
+      <c r="I6">
+        <v>-3.7732699457732424E-4</v>
+      </c>
+      <c r="J6">
+        <v>8.9112026555689854E-6</v>
+      </c>
+      <c r="K6">
+        <v>-2.1857731631868106E-4</v>
+      </c>
+      <c r="L6">
+        <v>5.1421154076669996E-5</v>
+      </c>
+      <c r="M6">
+        <v>2.5963440700301887E-4</v>
+      </c>
+      <c r="N6">
+        <v>-3.7850492889467265E-4</v>
+      </c>
+      <c r="O6">
+        <v>5.3262374828049559E-5</v>
+      </c>
+      <c r="P6">
+        <v>-2.1684858502645681E-4</v>
+      </c>
+      <c r="Q6">
+        <v>-9.4786869963811625E-5</v>
+      </c>
+      <c r="R6">
+        <v>-2.3820455282759842E-5</v>
+      </c>
+      <c r="S6">
+        <v>4.1313905271879448E-6</v>
+      </c>
+      <c r="T6">
+        <v>-6.1568372747151196E-5</v>
+      </c>
+      <c r="U6">
+        <v>-7.4874473185019535E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>-0.22452725122149886</v>
+      </c>
+      <c r="C7">
+        <v>2.149649412465649E-4</v>
+      </c>
+      <c r="D7">
+        <v>5.0213167029426677E-4</v>
+      </c>
+      <c r="E7">
+        <v>-7.3836953688990724E-6</v>
+      </c>
+      <c r="F7">
+        <v>-1.1799027341086188E-4</v>
+      </c>
+      <c r="G7">
+        <v>-4.3291307115435698E-4</v>
+      </c>
+      <c r="H7">
+        <v>5.3688513841993381E-3</v>
+      </c>
+      <c r="I7">
+        <v>1.7449682782647636E-3</v>
+      </c>
+      <c r="J7">
+        <v>-2.5401884449478503E-4</v>
+      </c>
+      <c r="K7">
+        <v>1.060180952462328E-3</v>
+      </c>
+      <c r="L7">
+        <v>1.4466544980118463E-3</v>
+      </c>
+      <c r="M7">
+        <v>1.3691447282565934E-3</v>
+      </c>
+      <c r="N7">
+        <v>1.5317080334260034E-4</v>
+      </c>
+      <c r="O7">
+        <v>-3.7699901365700656E-4</v>
+      </c>
+      <c r="P7">
+        <v>-1.0123752452612274E-5</v>
+      </c>
+      <c r="Q7">
+        <v>-3.277310157825228E-4</v>
+      </c>
+      <c r="R7">
+        <v>-3.9144891448469204E-5</v>
+      </c>
+      <c r="S7">
+        <v>9.4191911000442163E-5</v>
+      </c>
+      <c r="T7">
+        <v>9.16467124554665E-5</v>
+      </c>
+      <c r="U7">
+        <v>-9.0534163073582065E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>-0.1440927124372435</v>
+      </c>
+      <c r="C8">
+        <v>-5.2437605660415442E-5</v>
+      </c>
+      <c r="D8">
+        <v>1.9411985163656615E-4</v>
+      </c>
+      <c r="E8">
+        <v>-3.151320122479334E-6</v>
+      </c>
+      <c r="F8">
+        <v>-1.1777421416991597E-4</v>
+      </c>
+      <c r="G8">
+        <v>-3.7732699457732424E-4</v>
+      </c>
+      <c r="H8">
+        <v>1.7449682782647636E-3</v>
+      </c>
+      <c r="I8">
+        <v>2.7454498461589581E-3</v>
+      </c>
+      <c r="J8">
+        <v>-2.8098887973769125E-4</v>
+      </c>
+      <c r="K8">
+        <v>9.7925648974747496E-4</v>
+      </c>
+      <c r="L8">
+        <v>1.5728222673578986E-3</v>
+      </c>
+      <c r="M8">
+        <v>1.4861060082732047E-3</v>
+      </c>
+      <c r="N8">
+        <v>-9.149659194442961E-5</v>
+      </c>
+      <c r="O8">
+        <v>-2.3582536603150019E-4</v>
+      </c>
+      <c r="P8">
+        <v>-5.1535513790473613E-5</v>
+      </c>
+      <c r="Q8">
+        <v>-1.1643414685258505E-4</v>
+      </c>
+      <c r="R8">
+        <v>2.9504922762596335E-5</v>
+      </c>
+      <c r="S8">
+        <v>-1.5215648639962958E-4</v>
+      </c>
+      <c r="T8">
+        <v>-1.5252090905032109E-4</v>
+      </c>
+      <c r="U8">
+        <v>-4.8222510672246682E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>1.166640695335194E-2</v>
+      </c>
+      <c r="C9">
+        <v>1.721836776311771E-4</v>
+      </c>
+      <c r="D9">
+        <v>1.027784086652132E-5</v>
+      </c>
+      <c r="E9">
+        <v>-2.9061442938470284E-7</v>
+      </c>
+      <c r="F9">
+        <v>-4.4761623489963584E-5</v>
+      </c>
+      <c r="G9">
+        <v>8.9112026555689854E-6</v>
+      </c>
+      <c r="H9">
+        <v>-2.5401884449478503E-4</v>
+      </c>
+      <c r="I9">
+        <v>-2.8098887973769125E-4</v>
+      </c>
+      <c r="J9">
+        <v>3.4414538869775588E-3</v>
+      </c>
+      <c r="K9">
+        <v>1.4903156965762408E-3</v>
+      </c>
+      <c r="L9">
+        <v>1.4300453793526864E-3</v>
+      </c>
+      <c r="M9">
+        <v>1.4104049815142153E-3</v>
+      </c>
+      <c r="N9">
+        <v>-1.086151781345767E-5</v>
+      </c>
+      <c r="O9">
+        <v>-1.4431040316841183E-4</v>
+      </c>
+      <c r="P9">
+        <v>-1.4778708821600449E-4</v>
+      </c>
+      <c r="Q9">
+        <v>-1.1044273794886893E-5</v>
+      </c>
+      <c r="R9">
+        <v>1.0299359341363961E-5</v>
+      </c>
+      <c r="S9">
+        <v>-8.6939127874174359E-5</v>
+      </c>
+      <c r="T9">
+        <v>-7.043991228708593E-5</v>
+      </c>
+      <c r="U9">
+        <v>-1.6615666764436651E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>-2.0427346860500312E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.3799019905741077E-4</v>
+      </c>
+      <c r="D10">
+        <v>-1.3914404090936586E-4</v>
+      </c>
+      <c r="E10">
+        <v>2.2877256176276093E-6</v>
+      </c>
+      <c r="F10">
+        <v>-1.8008890678033828E-4</v>
+      </c>
+      <c r="G10">
+        <v>-2.1857731631868106E-4</v>
+      </c>
+      <c r="H10">
+        <v>1.060180952462328E-3</v>
+      </c>
+      <c r="I10">
+        <v>9.7925648974747496E-4</v>
+      </c>
+      <c r="J10">
+        <v>1.4903156965762408E-3</v>
+      </c>
+      <c r="K10">
+        <v>3.2479408516479864E-3</v>
+      </c>
+      <c r="L10">
+        <v>2.3233454968725718E-3</v>
+      </c>
+      <c r="M10">
+        <v>2.2520940553292018E-3</v>
+      </c>
+      <c r="N10">
+        <v>-6.7632060128407115E-5</v>
+      </c>
+      <c r="O10">
+        <v>-3.0426127889508742E-4</v>
+      </c>
+      <c r="P10">
+        <v>-1.0203493748716096E-4</v>
+      </c>
+      <c r="Q10">
+        <v>-1.1936698787118924E-4</v>
+      </c>
+      <c r="R10">
+        <v>9.1226778257872098E-6</v>
+      </c>
+      <c r="S10">
+        <v>8.2147868456146133E-5</v>
+      </c>
+      <c r="T10">
+        <v>8.5350875668950262E-5</v>
+      </c>
+      <c r="U10">
+        <v>-3.212973557266529E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>-7.0467002320354036E-2</v>
+      </c>
+      <c r="C11">
+        <v>5.0465514385089379E-5</v>
+      </c>
+      <c r="D11">
+        <v>-1.4221730512971494E-4</v>
+      </c>
+      <c r="E11">
+        <v>1.977062399601804E-6</v>
+      </c>
+      <c r="F11">
+        <v>1.2838484880973848E-5</v>
+      </c>
+      <c r="G11">
+        <v>5.1421154076669996E-5</v>
+      </c>
+      <c r="H11">
+        <v>1.4466544980118463E-3</v>
+      </c>
+      <c r="I11">
+        <v>1.5728222673578986E-3</v>
+      </c>
+      <c r="J11">
+        <v>1.4300453793526864E-3</v>
+      </c>
+      <c r="K11">
+        <v>2.3233454968725718E-3</v>
+      </c>
+      <c r="L11">
+        <v>3.832777209407447E-3</v>
+      </c>
+      <c r="M11">
+        <v>2.7365738345017888E-3</v>
+      </c>
+      <c r="N11">
+        <v>-1.9547607332188368E-4</v>
+      </c>
+      <c r="O11">
+        <v>6.3903344558050685E-5</v>
+      </c>
+      <c r="P11">
+        <v>-8.223042449804238E-5</v>
+      </c>
+      <c r="Q11">
+        <v>-1.48832605013917E-4</v>
+      </c>
+      <c r="R11">
+        <v>2.3687991519444605E-5</v>
+      </c>
+      <c r="S11">
+        <v>-2.1513746205831913E-4</v>
+      </c>
+      <c r="T11">
+        <v>-1.1260595177313594E-4</v>
+      </c>
+      <c r="U11">
+        <v>-7.3598783831022735E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>-2.7771788713505035E-2</v>
+      </c>
+      <c r="C12">
+        <v>-1.1503667230241461E-4</v>
+      </c>
+      <c r="D12">
+        <v>-4.9792161380392448E-5</v>
+      </c>
+      <c r="E12">
+        <v>4.4601625735538839E-7</v>
+      </c>
+      <c r="F12">
+        <v>2.7584921765370679E-4</v>
+      </c>
+      <c r="G12">
+        <v>2.5963440700301887E-4</v>
+      </c>
+      <c r="H12">
+        <v>1.3691447282565934E-3</v>
+      </c>
+      <c r="I12">
+        <v>1.4861060082732047E-3</v>
+      </c>
+      <c r="J12">
+        <v>1.4104049815142153E-3</v>
+      </c>
+      <c r="K12">
+        <v>2.2520940553292018E-3</v>
+      </c>
+      <c r="L12">
+        <v>2.7365738345017888E-3</v>
+      </c>
+      <c r="M12">
+        <v>5.0078802085193894E-3</v>
+      </c>
+      <c r="N12">
+        <v>-1.4250862715585921E-5</v>
+      </c>
+      <c r="O12">
+        <v>-1.8825313401583211E-4</v>
+      </c>
+      <c r="P12">
+        <v>1.2494752379198004E-4</v>
+      </c>
+      <c r="Q12">
+        <v>8.6872204246171643E-5</v>
+      </c>
+      <c r="R12">
+        <v>2.742824086117057E-5</v>
+      </c>
+      <c r="S12">
+        <v>-1.3327134659666648E-4</v>
+      </c>
+      <c r="T12">
+        <v>-3.7617015064693714E-4</v>
+      </c>
+      <c r="U12">
+        <v>-2.2972632443164576E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>-0.11087398175453632</v>
+      </c>
+      <c r="C13">
+        <v>-1.4458703327079053E-4</v>
+      </c>
+      <c r="D13">
+        <v>-1.0759854636406595E-4</v>
+      </c>
+      <c r="E13">
+        <v>1.5744898127945065E-6</v>
+      </c>
+      <c r="F13">
+        <v>-1.6161980480349164E-4</v>
+      </c>
+      <c r="G13">
+        <v>-3.7850492889467265E-4</v>
+      </c>
+      <c r="H13">
+        <v>1.5317080334260034E-4</v>
+      </c>
+      <c r="I13">
+        <v>-9.149659194442961E-5</v>
+      </c>
+      <c r="J13">
+        <v>-1.086151781345767E-5</v>
+      </c>
+      <c r="K13">
+        <v>-6.7632060128407115E-5</v>
+      </c>
+      <c r="L13">
+        <v>-1.9547607332188368E-4</v>
+      </c>
+      <c r="M13">
+        <v>-1.4250862715585921E-5</v>
+      </c>
+      <c r="N13">
+        <v>3.1288599272371012E-3</v>
+      </c>
+      <c r="O13">
+        <v>1.3271368383973878E-3</v>
+      </c>
+      <c r="P13">
+        <v>1.3297543497229332E-3</v>
+      </c>
+      <c r="Q13">
+        <v>1.3207397835183574E-3</v>
+      </c>
+      <c r="R13">
+        <v>-4.7232901444700956E-6</v>
+      </c>
+      <c r="S13">
+        <v>-1.7642018403290395E-5</v>
+      </c>
+      <c r="T13">
+        <v>-9.3972128966314002E-6</v>
+      </c>
+      <c r="U13">
+        <v>8.2515707839152794E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>-0.12835996359433108</v>
+      </c>
+      <c r="C14">
+        <v>-5.1867126288749474E-5</v>
+      </c>
+      <c r="D14">
+        <v>-8.4849050518204325E-5</v>
+      </c>
+      <c r="E14">
+        <v>8.551322654478527E-7</v>
+      </c>
+      <c r="F14">
+        <v>1.7233356922551882E-4</v>
+      </c>
+      <c r="G14">
+        <v>5.3262374828049559E-5</v>
+      </c>
+      <c r="H14">
+        <v>-3.7699901365700656E-4</v>
+      </c>
+      <c r="I14">
+        <v>-2.3582536603150019E-4</v>
+      </c>
+      <c r="J14">
+        <v>-1.4431040316841183E-4</v>
+      </c>
+      <c r="K14">
+        <v>-3.0426127889508742E-4</v>
+      </c>
+      <c r="L14">
+        <v>6.3903344558050685E-5</v>
+      </c>
+      <c r="M14">
+        <v>-1.8825313401583211E-4</v>
+      </c>
+      <c r="N14">
+        <v>1.3271368383973878E-3</v>
+      </c>
+      <c r="O14">
+        <v>5.3543768515321132E-3</v>
+      </c>
+      <c r="P14">
+        <v>1.3041586027415575E-3</v>
+      </c>
+      <c r="Q14">
+        <v>1.3358310573085969E-3</v>
+      </c>
+      <c r="R14">
+        <v>3.332400839939943E-5</v>
+      </c>
+      <c r="S14">
+        <v>-4.9048317794241883E-4</v>
+      </c>
+      <c r="T14">
+        <v>-3.1911604119511539E-4</v>
+      </c>
+      <c r="U14">
+        <v>-9.7458145423623475E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>-0.10341243734068521</v>
+      </c>
+      <c r="C15">
+        <v>-8.0001856939382148E-5</v>
+      </c>
+      <c r="D15">
+        <v>-8.4927254428683249E-5</v>
+      </c>
+      <c r="E15">
+        <v>1.1261326590273982E-6</v>
+      </c>
+      <c r="F15">
+        <v>6.6058283828845054E-5</v>
+      </c>
+      <c r="G15">
+        <v>-2.1684858502645681E-4</v>
+      </c>
+      <c r="H15">
+        <v>-1.0123752452612274E-5</v>
+      </c>
+      <c r="I15">
+        <v>-5.1535513790473613E-5</v>
+      </c>
+      <c r="J15">
+        <v>-1.4778708821600449E-4</v>
+      </c>
+      <c r="K15">
+        <v>-1.0203493748716096E-4</v>
+      </c>
+      <c r="L15">
+        <v>-8.223042449804238E-5</v>
+      </c>
+      <c r="M15">
+        <v>1.2494752379198004E-4</v>
+      </c>
+      <c r="N15">
+        <v>1.3297543497229332E-3</v>
+      </c>
+      <c r="O15">
+        <v>1.3041586027415575E-3</v>
+      </c>
+      <c r="P15">
+        <v>3.3275528469612087E-3</v>
+      </c>
+      <c r="Q15">
+        <v>1.3316653094292941E-3</v>
+      </c>
+      <c r="R15">
+        <v>-3.5268833861207671E-6</v>
+      </c>
+      <c r="S15">
+        <v>-1.0578852919365816E-4</v>
+      </c>
+      <c r="T15">
+        <v>2.9159500640443527E-5</v>
+      </c>
+      <c r="U15">
+        <v>3.2995102065062334E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>-6.8904819689100935E-2</v>
+      </c>
+      <c r="C16">
+        <v>-1.2947880316783935E-4</v>
+      </c>
+      <c r="D16">
+        <v>-9.6837043590702128E-5</v>
+      </c>
+      <c r="E16">
+        <v>1.368553637551854E-6</v>
+      </c>
+      <c r="F16">
+        <v>9.3981603891204302E-5</v>
+      </c>
+      <c r="G16">
+        <v>-9.4786869963811625E-5</v>
+      </c>
+      <c r="H16">
+        <v>-3.277310157825228E-4</v>
+      </c>
+      <c r="I16">
+        <v>-1.1643414685258505E-4</v>
+      </c>
+      <c r="J16">
+        <v>-1.1044273794886893E-5</v>
+      </c>
+      <c r="K16">
+        <v>-1.1936698787118924E-4</v>
+      </c>
+      <c r="L16">
+        <v>-1.48832605013917E-4</v>
+      </c>
+      <c r="M16">
+        <v>8.6872204246171643E-5</v>
+      </c>
+      <c r="N16">
+        <v>1.3207397835183574E-3</v>
+      </c>
+      <c r="O16">
+        <v>1.3358310573085969E-3</v>
+      </c>
+      <c r="P16">
+        <v>1.3316653094292941E-3</v>
+      </c>
+      <c r="Q16">
+        <v>2.1038468354393608E-3</v>
+      </c>
+      <c r="R16">
+        <v>6.9844361934817279E-7</v>
+      </c>
+      <c r="S16">
+        <v>-7.7944681850186912E-6</v>
+      </c>
+      <c r="T16">
+        <v>3.7195987760176832E-5</v>
+      </c>
+      <c r="U16">
+        <v>4.2348505898205148E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>5.5785384575010463E-6</v>
+      </c>
+      <c r="C17">
+        <v>1.0165724432990153E-5</v>
+      </c>
+      <c r="D17">
+        <v>3.9585230328766444E-6</v>
+      </c>
+      <c r="E17">
+        <v>-1.0751696909061587E-7</v>
+      </c>
+      <c r="F17">
+        <v>-6.8487697718651731E-7</v>
+      </c>
+      <c r="G17">
+        <v>-2.3820455282759842E-5</v>
+      </c>
+      <c r="H17">
+        <v>-3.9144891448469204E-5</v>
+      </c>
+      <c r="I17">
+        <v>2.9504922762596335E-5</v>
+      </c>
+      <c r="J17">
+        <v>1.0299359341363961E-5</v>
+      </c>
+      <c r="K17">
+        <v>9.1226778257872098E-6</v>
+      </c>
+      <c r="L17">
+        <v>2.3687991519444605E-5</v>
+      </c>
+      <c r="M17">
+        <v>2.742824086117057E-5</v>
+      </c>
+      <c r="N17">
+        <v>-4.7232901444700956E-6</v>
+      </c>
+      <c r="O17">
+        <v>3.332400839939943E-5</v>
+      </c>
+      <c r="P17">
+        <v>-3.5268833861207671E-6</v>
+      </c>
+      <c r="Q17">
+        <v>6.9844361934817279E-7</v>
+      </c>
+      <c r="R17">
+        <v>2.5246780785190027E-5</v>
+      </c>
+      <c r="S17">
+        <v>-1.0544718383621765E-4</v>
+      </c>
+      <c r="T17">
+        <v>-1.2597555574303429E-4</v>
+      </c>
+      <c r="U17">
+        <v>-4.4705509730369269E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>3.9898042913459074E-2</v>
+      </c>
+      <c r="C18">
+        <v>-1.2896466474044275E-4</v>
+      </c>
+      <c r="D18">
+        <v>1.2307788391941398E-4</v>
+      </c>
+      <c r="E18">
+        <v>-1.6223388833581656E-6</v>
+      </c>
+      <c r="F18">
+        <v>-4.4220195967687207E-5</v>
+      </c>
+      <c r="G18">
+        <v>4.1313905271879448E-6</v>
+      </c>
+      <c r="H18">
+        <v>9.4191911000442163E-5</v>
+      </c>
+      <c r="I18">
+        <v>-1.5215648639962958E-4</v>
+      </c>
+      <c r="J18">
+        <v>-8.6939127874174359E-5</v>
+      </c>
+      <c r="K18">
+        <v>8.2147868456146133E-5</v>
+      </c>
+      <c r="L18">
+        <v>-2.1513746205831913E-4</v>
+      </c>
+      <c r="M18">
+        <v>-1.3327134659666648E-4</v>
+      </c>
+      <c r="N18">
+        <v>-1.7642018403290395E-5</v>
+      </c>
+      <c r="O18">
+        <v>-4.9048317794241883E-4</v>
+      </c>
+      <c r="P18">
+        <v>-1.0578852919365816E-4</v>
+      </c>
+      <c r="Q18">
+        <v>-7.7944681850186912E-6</v>
+      </c>
+      <c r="R18">
+        <v>-1.0544718383621765E-4</v>
+      </c>
+      <c r="S18">
+        <v>4.3746579972192392E-3</v>
+      </c>
+      <c r="T18">
+        <v>8.584871810464181E-4</v>
+      </c>
+      <c r="U18">
+        <v>-5.376584885529636E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>3.4221911168741945E-2</v>
+      </c>
+      <c r="C19">
+        <v>-4.2692255085263314E-6</v>
+      </c>
+      <c r="D19">
+        <v>-6.6450718994026658E-7</v>
+      </c>
+      <c r="E19">
+        <v>-4.0830682533250242E-8</v>
+      </c>
+      <c r="F19">
+        <v>6.7447702246168869E-5</v>
+      </c>
+      <c r="G19">
+        <v>-6.1568372747151196E-5</v>
+      </c>
+      <c r="H19">
+        <v>9.16467124554665E-5</v>
+      </c>
+      <c r="I19">
+        <v>-1.5252090905032109E-4</v>
+      </c>
+      <c r="J19">
+        <v>-7.043991228708593E-5</v>
+      </c>
+      <c r="K19">
+        <v>8.5350875668950262E-5</v>
+      </c>
+      <c r="L19">
+        <v>-1.1260595177313594E-4</v>
+      </c>
+      <c r="M19">
+        <v>-3.7617015064693714E-4</v>
+      </c>
+      <c r="N19">
+        <v>-9.3972128966314002E-6</v>
+      </c>
+      <c r="O19">
+        <v>-3.1911604119511539E-4</v>
+      </c>
+      <c r="P19">
+        <v>2.9159500640443527E-5</v>
+      </c>
+      <c r="Q19">
+        <v>3.7195987760176832E-5</v>
+      </c>
+      <c r="R19">
+        <v>-1.2597555574303429E-4</v>
+      </c>
+      <c r="S19">
+        <v>8.584871810464181E-4</v>
+      </c>
+      <c r="T19">
+        <v>5.5638359667314289E-3</v>
+      </c>
+      <c r="U19">
+        <v>1.8046920809356552E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>-1.8924412731065168</v>
+      </c>
+      <c r="C20">
+        <v>4.6697036394668262E-4</v>
+      </c>
+      <c r="D20">
+        <v>-1.4361770494688467E-2</v>
+      </c>
+      <c r="E20">
+        <v>2.398165347949532E-4</v>
+      </c>
+      <c r="F20">
+        <v>-4.2691626319761866E-3</v>
+      </c>
+      <c r="G20">
+        <v>-7.4874473185019535E-3</v>
+      </c>
+      <c r="H20">
+        <v>-9.0534163073582065E-3</v>
+      </c>
+      <c r="I20">
+        <v>-4.8222510672246682E-3</v>
+      </c>
+      <c r="J20">
+        <v>-1.6615666764436651E-3</v>
+      </c>
+      <c r="K20">
+        <v>-3.212973557266529E-4</v>
+      </c>
+      <c r="L20">
+        <v>-7.3598783831022735E-4</v>
+      </c>
+      <c r="M20">
+        <v>-2.2972632443164576E-3</v>
+      </c>
+      <c r="N20">
+        <v>8.2515707839152794E-4</v>
+      </c>
+      <c r="O20">
+        <v>-9.7458145423623475E-6</v>
+      </c>
+      <c r="P20">
+        <v>3.2995102065062334E-4</v>
+      </c>
+      <c r="Q20">
+        <v>4.2348505898205148E-4</v>
+      </c>
+      <c r="R20">
+        <v>-4.4705509730369269E-4</v>
+      </c>
+      <c r="S20">
+        <v>-5.376584885529636E-4</v>
+      </c>
+      <c r="T20">
+        <v>1.8046920809356552E-3</v>
+      </c>
+      <c r="U20">
+        <v>0.22069264832930358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>